--- a/tests/test_files/test_list.xlsx
+++ b/tests/test_files/test_list.xlsx
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -144,10 +144,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,9 +463,9 @@
     <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="18.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">

--- a/tests/test_files/test_list.xlsx
+++ b/tests/test_files/test_list.xlsx
@@ -28,7 +28,7 @@
     <t>Anestesia</t>
   </si>
   <si>
-    <t>Infezione</t>
+    <t>Infezioni</t>
   </si>
   <si>
     <t>Data inserimento in lista</t>
